--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/qghd143_leeds_ac_uk/Documents/Data Tracking &amp; Reporting/DATA REPORTS/PECD PP Pool Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9598DB-456A-46B7-AE3B-B184B06C33C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{90C1450A-75FF-41DB-BF38-0D02861FF771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833665C6-E709-4CE9-BB5D-2C48C05C0AD1}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>Disease Experience</t>
-  </si>
-  <si>
     <t>Year of Birth</t>
   </si>
   <si>
-    <t>Do you consider yourself to be a disabled person</t>
-  </si>
-  <si>
     <t>Do you have any physical or mental health conditions or illness lasting or expected to last for 12 months or more?</t>
   </si>
   <si>
@@ -385,16 +379,48 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>1st Disease Experience</t>
+  </si>
+  <si>
+    <t>2nd Disease Experience</t>
+  </si>
+  <si>
+    <t>3rd Disease Experience</t>
+  </si>
+  <si>
+    <t>4th Disease Experience</t>
+  </si>
+  <si>
+    <t>5th Disease Experience</t>
+  </si>
+  <si>
+    <t>Do you consider yourself to be a disabled person?</t>
+  </si>
+  <si>
+    <t>Ritik Bochiwal</t>
+  </si>
+  <si>
+    <t>ritik.bochiwal@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -590,11 +616,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,8 +713,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,21 +1009,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="28.796875" customWidth="1"/>
-    <col min="4" max="6" width="18.06640625" customWidth="1"/>
-    <col min="7" max="8" width="11.9296875" customWidth="1"/>
-    <col min="9" max="18" width="15.53125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="4" max="6" width="18.08984375" customWidth="1"/>
+    <col min="7" max="8" width="11.90625" customWidth="1"/>
+    <col min="9" max="18" width="15.54296875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -960,72 +1037,72 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1037,48 +1114,48 @@
         <v>33</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
@@ -1087,52 +1164,52 @@
         <v>1987</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J21" si="0">2025-I3</f>
+        <f t="shared" ref="J3:J22" si="0">2025-I3</f>
         <v>38</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
@@ -1145,48 +1222,48 @@
         <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -1199,48 +1276,48 @@
         <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -1253,51 +1330,51 @@
         <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="S6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1309,48 +1386,48 @@
         <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -1363,48 +1440,48 @@
         <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -1417,48 +1494,48 @@
         <v>25</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="S9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
@@ -1471,48 +1548,48 @@
         <v>32</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
@@ -1525,48 +1602,48 @@
         <v>28</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
@@ -1579,48 +1656,48 @@
         <v>40</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
@@ -1633,51 +1710,51 @@
         <v>34</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1689,48 +1766,48 @@
         <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7"/>
@@ -1743,48 +1820,48 @@
         <v>31</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="16" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
@@ -1797,48 +1874,48 @@
         <v>47</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
@@ -1851,48 +1928,48 @@
         <v>23</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
@@ -1905,48 +1982,48 @@
         <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="S18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="19" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
@@ -1959,48 +2036,48 @@
         <v>39</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="Q19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
@@ -2013,51 +2090,51 @@
         <v>35</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="S20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="21" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2069,35 +2146,85 @@
         <v>42</v>
       </c>
       <c r="K21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="O21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1998</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>82</v>
+      <c r="O22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{D32597DE-D16A-40B0-8C27-0A64D5F21C2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>